--- a/DataTableCsv/Default合成工具.xlsx
+++ b/DataTableCsv/Default合成工具.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\0504demo\DataTableCsv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{266A581C-0A66-4C1E-A962-17355B2D84B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AE8E3AC-B31A-49C8-A595-55F531F7C26E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25716" yWindow="1740" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="7">
   <si>
     <t>(Valid=True,Cost=</t>
   </si>
@@ -49,15 +49,6 @@
   </si>
   <si>
     <t>Blue</t>
-  </si>
-  <si>
-    <t>White</t>
-  </si>
-  <si>
-    <t>Red</t>
-  </si>
-  <si>
-    <t>Violet</t>
   </si>
 </sst>
 </file>
@@ -88,18 +79,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEEAD"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -114,11 +99,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -404,8 +386,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F18" sqref="F4:F18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q6" sqref="Q6:Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -446,38 +428,38 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F5" t="str">
         <f>$A$1&amp;B5&amp;$C$1&amp;D6&amp;$J$1</f>
-        <v>(Valid=True,Cost=0,MainType=Attack,MisCamp=False,MisCampValid=False,Color=White,InLength=False)</v>
+        <v>(Valid=True,Cost=3,MainType=Attack,MisCamp=False,MisCampValid=False,Color=Blue,InLength=False)</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F6" t="str">
         <f>$A$1&amp;B6&amp;$C$1&amp;D7&amp;$J$1</f>
-        <v>(Valid=True,Cost=1,MainType=Attack,MisCamp=False,MisCampValid=False,Color=White,InLength=False)</v>
+        <v>(Valid=True,Cost=3,MainType=Attack,MisCamp=False,MisCampValid=False,Color=Blue,InLength=False)</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F7" t="str">
-        <f t="shared" ref="F5:F18" si="0">$A$1&amp;B7&amp;$C$1&amp;D7&amp;$J$1</f>
-        <v>(Valid=True,Cost=1,MainType=Attack,MisCamp=False,MisCampValid=False,Color=White,InLength=False)</v>
+        <f t="shared" ref="F7:F18" si="0">$A$1&amp;B7&amp;$C$1&amp;D7&amp;$J$1</f>
+        <v>(Valid=True,Cost=3,MainType=Attack,MisCamp=False,MisCampValid=False,Color=Blue,InLength=False)</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -494,69 +476,69 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F9" t="str">
         <f t="shared" si="0"/>
-        <v>(Valid=True,Cost=1,MainType=Attack,MisCamp=False,MisCampValid=False,Color=White,InLength=False)</v>
+        <v>(Valid=True,Cost=4,MainType=Attack,MisCamp=False,MisCampValid=False,Color=Blue,InLength=False)</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F10" t="str">
         <f t="shared" si="0"/>
-        <v>(Valid=True,Cost=1,MainType=Attack,MisCamp=False,MisCampValid=False,Color=White,InLength=False)</v>
+        <v>(Valid=True,Cost=4,MainType=Attack,MisCamp=False,MisCampValid=False,Color=Blue,InLength=False)</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="2">
-        <v>3</v>
-      </c>
-      <c r="D11" s="2" t="s">
+      <c r="B11" s="1">
+        <v>10</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" si="0"/>
-        <v>(Valid=True,Cost=3,MainType=Attack,MisCamp=False,MisCampValid=False,Color=Blue,InLength=False)</v>
+        <v>(Valid=True,Cost=10,MainType=Attack,MisCamp=False,MisCampValid=False,Color=Blue,InLength=False)</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="2">
-        <v>3</v>
+      <c r="B12" s="1">
+        <v>4</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F12" t="str">
         <f t="shared" si="0"/>
-        <v>(Valid=True,Cost=3,MainType=Attack,MisCamp=False,MisCampValid=False,Color=White,InLength=False)</v>
+        <v>(Valid=True,Cost=4,MainType=Attack,MisCamp=False,MisCampValid=False,Color=Blue,InLength=False)</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="2">
-        <v>1</v>
+      <c r="B13" s="1">
+        <v>3</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F13" t="str">
         <f t="shared" si="0"/>
-        <v>(Valid=True,Cost=1,MainType=Attack,MisCamp=False,MisCampValid=False,Color=White,InLength=False)</v>
+        <v>(Valid=True,Cost=3,MainType=Attack,MisCamp=False,MisCampValid=False,Color=Blue,InLength=False)</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="2">
-        <v>3</v>
-      </c>
-      <c r="D14" s="2" t="s">
+      <c r="B14" s="1">
+        <v>3</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F14" t="str">
@@ -565,51 +547,39 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="2">
-        <v>1</v>
+      <c r="B15" s="1">
+        <v>4</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F15" t="str">
         <f t="shared" si="0"/>
-        <v>(Valid=True,Cost=1,MainType=Attack,MisCamp=False,MisCampValid=False,Color=White,InLength=False)</v>
+        <v>(Valid=True,Cost=4,MainType=Attack,MisCamp=False,MisCampValid=False,Color=Blue,InLength=False)</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="2">
-        <v>5</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="B16" s="1"/>
+      <c r="D16" s="1"/>
       <c r="F16" t="str">
         <f t="shared" si="0"/>
-        <v>(Valid=True,Cost=5,MainType=Attack,MisCamp=False,MisCampValid=False,Color=Blue,InLength=False)</v>
+        <v>(Valid=True,Cost=,MainType=Attack,MisCamp=False,MisCampValid=False,Color=,InLength=False)</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="2">
-        <v>1</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="B17" s="1"/>
+      <c r="D17" s="1"/>
       <c r="F17" t="str">
         <f t="shared" si="0"/>
-        <v>(Valid=True,Cost=1,MainType=Attack,MisCamp=False,MisCampValid=False,Color=Violet,InLength=False)</v>
+        <v>(Valid=True,Cost=,MainType=Attack,MisCamp=False,MisCampValid=False,Color=,InLength=False)</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="2">
-        <v>3</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="B18" s="1"/>
+      <c r="D18" s="1"/>
       <c r="F18" t="str">
         <f t="shared" si="0"/>
-        <v>(Valid=True,Cost=3,MainType=Attack,MisCamp=False,MisCampValid=False,Color=Blue,InLength=False)</v>
+        <v>(Valid=True,Cost=,MainType=Attack,MisCamp=False,MisCampValid=False,Color=,InLength=False)</v>
       </c>
     </row>
   </sheetData>

--- a/DataTableCsv/Default合成工具.xlsx
+++ b/DataTableCsv/Default合成工具.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\0504demo\DataTableCsv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AE8E3AC-B31A-49C8-A595-55F531F7C26E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A8B7F22-5D1A-451E-9CDF-9627B31EE35E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="16">
   <si>
     <t>(Valid=True,Cost=</t>
   </si>
@@ -49,13 +49,45 @@
   </si>
   <si>
     <t>Blue</t>
+  </si>
+  <si>
+    <t>Red</t>
+  </si>
+  <si>
+    <t>White</t>
+  </si>
+  <si>
+    <t>Green</t>
+  </si>
+  <si>
+    <t>Yellow</t>
+  </si>
+  <si>
+    <t>"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Health</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Armor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(IsDead=False,M_Health=60.000000,health=60.000000,FakeHealth=0.000000,DefaultArmor=3,Armor=3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -74,17 +106,37 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEEAD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -99,9 +151,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -384,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:R50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6:Q7"/>
+    <sheetView tabSelected="1" topLeftCell="J19" workbookViewId="0">
+      <selection activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -415,171 +482,505 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="1">
+      <c r="B4" s="3">
         <v>3</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F4" t="str">
         <f>$A$1&amp;B4&amp;$C$1&amp;D4&amp;$J$1</f>
-        <v>(Valid=True,Cost=3,MainType=Attack,MisCamp=False,MisCampValid=False,Color=Blue,InLength=False)</v>
+        <v>(Valid=True,Cost=3,MainType=Attack,MisCamp=False,MisCampValid=False,Color=Red,InLength=False)</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="1">
-        <v>3</v>
+      <c r="B5" s="3">
+        <v>2</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F5" t="str">
         <f>$A$1&amp;B5&amp;$C$1&amp;D6&amp;$J$1</f>
-        <v>(Valid=True,Cost=3,MainType=Attack,MisCamp=False,MisCampValid=False,Color=Blue,InLength=False)</v>
+        <v>(Valid=True,Cost=2,MainType=Attack,MisCamp=False,MisCampValid=False,Color=White,InLength=False)</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="1">
-        <v>3</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>6</v>
+      <c r="B6" s="3">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="F6" t="str">
         <f>$A$1&amp;B6&amp;$C$1&amp;D7&amp;$J$1</f>
-        <v>(Valid=True,Cost=3,MainType=Attack,MisCamp=False,MisCampValid=False,Color=Blue,InLength=False)</v>
+        <v>(Valid=True,Cost=0,MainType=Attack,MisCamp=False,MisCampValid=False,Color=Red,InLength=False)</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="1">
+      <c r="B7" s="3">
+        <v>4</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" ref="F7:F23" si="0">$A$1&amp;B7&amp;$C$1&amp;D7&amp;$J$1</f>
+        <v>(Valid=True,Cost=4,MainType=Attack,MisCamp=False,MisCampValid=False,Color=Red,InLength=False)</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="4">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="0"/>
+        <v>(Valid=True,Cost=1,MainType=Attack,MisCamp=False,MisCampValid=False,Color=Green,InLength=False)</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="4">
+        <v>4</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="0"/>
+        <v>(Valid=True,Cost=4,MainType=Attack,MisCamp=False,MisCampValid=False,Color=Blue,InLength=False)</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="4">
+        <v>2</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" si="0"/>
+        <v>(Valid=True,Cost=2,MainType=Attack,MisCamp=False,MisCampValid=False,Color=Blue,InLength=False)</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="4">
+        <v>6</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="0"/>
+        <v>(Valid=True,Cost=6,MainType=Attack,MisCamp=False,MisCampValid=False,Color=Blue,InLength=False)</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="3">
+        <v>0</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="0"/>
+        <v>(Valid=True,Cost=0,MainType=Attack,MisCamp=False,MisCampValid=False,Color=White,InLength=False)</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="3">
         <v>3</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" t="str">
-        <f t="shared" ref="F7:F18" si="0">$A$1&amp;B7&amp;$C$1&amp;D7&amp;$J$1</f>
-        <v>(Valid=True,Cost=3,MainType=Attack,MisCamp=False,MisCampValid=False,Color=Blue,InLength=False)</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="1">
+      <c r="D13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="0"/>
+        <v>(Valid=True,Cost=3,MainType=Attack,MisCamp=False,MisCampValid=False,Color=Yellow,InLength=False)</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="4">
+        <v>5</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="0"/>
+        <v>(Valid=True,Cost=5,MainType=Attack,MisCamp=False,MisCampValid=False,Color=Yellow,InLength=False)</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="2">
+        <v>10</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" si="0"/>
+        <v>(Valid=True,Cost=10,MainType=Attack,MisCamp=False,MisCampValid=False,Color=Yellow,InLength=False)</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="4">
+        <v>0</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" si="0"/>
+        <v>(Valid=True,Cost=0,MainType=Attack,MisCamp=False,MisCampValid=False,Color=White,InLength=False)</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B17" s="4">
+        <v>0</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" t="str">
+        <f t="shared" si="0"/>
+        <v>(Valid=True,Cost=0,MainType=Attack,MisCamp=False,MisCampValid=False,Color=White,InLength=False)</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B18" s="4">
+        <v>5</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" t="str">
+        <f t="shared" si="0"/>
+        <v>(Valid=True,Cost=5,MainType=Attack,MisCamp=False,MisCampValid=False,Color=Red,InLength=False)</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B19" s="4">
+        <v>10</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" t="str">
+        <f t="shared" si="0"/>
+        <v>(Valid=True,Cost=10,MainType=Attack,MisCamp=False,MisCampValid=False,Color=Red,InLength=False)</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B20" s="4">
+        <v>10</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" t="str">
+        <f t="shared" si="0"/>
+        <v>(Valid=True,Cost=10,MainType=Attack,MisCamp=False,MisCampValid=False,Color=Red,InLength=False)</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B21" s="4">
         <v>3</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" t="str">
-        <f t="shared" si="0"/>
-        <v>(Valid=True,Cost=3,MainType=Attack,MisCamp=False,MisCampValid=False,Color=Blue,InLength=False)</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="1">
-        <v>4</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F9" t="str">
-        <f t="shared" si="0"/>
-        <v>(Valid=True,Cost=4,MainType=Attack,MisCamp=False,MisCampValid=False,Color=Blue,InLength=False)</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="1">
-        <v>4</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10" t="str">
-        <f t="shared" si="0"/>
-        <v>(Valid=True,Cost=4,MainType=Attack,MisCamp=False,MisCampValid=False,Color=Blue,InLength=False)</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="1">
-        <v>10</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F11" t="str">
-        <f t="shared" si="0"/>
-        <v>(Valid=True,Cost=10,MainType=Attack,MisCamp=False,MisCampValid=False,Color=Blue,InLength=False)</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="1">
-        <v>4</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F12" t="str">
-        <f t="shared" si="0"/>
-        <v>(Valid=True,Cost=4,MainType=Attack,MisCamp=False,MisCampValid=False,Color=Blue,InLength=False)</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="1">
+      <c r="D21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" t="str">
+        <f t="shared" si="0"/>
+        <v>(Valid=True,Cost=3,MainType=Attack,MisCamp=False,MisCampValid=False,Color=Red,InLength=False)</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B22" s="4">
         <v>3</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F13" t="str">
-        <f t="shared" si="0"/>
-        <v>(Valid=True,Cost=3,MainType=Attack,MisCamp=False,MisCampValid=False,Color=Blue,InLength=False)</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="1">
+      <c r="D22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" t="str">
+        <f t="shared" si="0"/>
+        <v>(Valid=True,Cost=3,MainType=Attack,MisCamp=False,MisCampValid=False,Color=Red,InLength=False)</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B23" s="4">
         <v>3</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F14" t="str">
-        <f t="shared" si="0"/>
-        <v>(Valid=True,Cost=3,MainType=Attack,MisCamp=False,MisCampValid=False,Color=Blue,InLength=False)</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="1">
-        <v>4</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F15" t="str">
-        <f t="shared" si="0"/>
-        <v>(Valid=True,Cost=4,MainType=Attack,MisCamp=False,MisCampValid=False,Color=Blue,InLength=False)</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="F16" t="str">
-        <f t="shared" si="0"/>
-        <v>(Valid=True,Cost=,MainType=Attack,MisCamp=False,MisCampValid=False,Color=,InLength=False)</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="F17" t="str">
-        <f t="shared" si="0"/>
-        <v>(Valid=True,Cost=,MainType=Attack,MisCamp=False,MisCampValid=False,Color=,InLength=False)</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="F18" t="str">
-        <f t="shared" si="0"/>
-        <v>(Valid=True,Cost=,MainType=Attack,MisCamp=False,MisCampValid=False,Color=,InLength=False)</v>
+      <c r="D23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" t="str">
+        <f t="shared" si="0"/>
+        <v>(Valid=True,Cost=3,MainType=Attack,MisCamp=False,MisCampValid=False,Color=White,InLength=False)</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O26" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" s="5">
+        <v>21101</v>
+      </c>
+      <c r="C27" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" t="str">
+        <f>$A$27&amp;B27&amp;$C$27</f>
+        <v>"21101",</v>
+      </c>
+      <c r="F27" t="str">
+        <f>D27&amp;D28&amp;D29&amp;D30</f>
+        <v>"21101","21102","21103","21104",</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B28" s="5">
+        <v>21102</v>
+      </c>
+      <c r="D28" t="str">
+        <f t="shared" ref="D28:D50" si="1">$A$27&amp;B28&amp;$C$27</f>
+        <v>"21102",</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B29" s="5">
+        <v>21103</v>
+      </c>
+      <c r="D29" t="str">
+        <f t="shared" si="1"/>
+        <v>"21103",</v>
+      </c>
+      <c r="O29" t="s">
+        <v>13</v>
+      </c>
+      <c r="P29" t="s">
+        <v>14</v>
+      </c>
+      <c r="R29" t="str">
+        <f>"(IsDead=False,M_Health="&amp;O30&amp;",health=0,FakeHealth=0.000000,DefaultArmor="&amp;P30&amp;",Armor=3)"</f>
+        <v>(IsDead=False,M_Health=,health=0,FakeHealth=0.000000,DefaultArmor=,Armor=3)</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B30" s="5">
+        <v>21104</v>
+      </c>
+      <c r="D30" t="str">
+        <f t="shared" si="1"/>
+        <v>"21104",</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B31" s="6">
+        <v>21201</v>
+      </c>
+      <c r="D31" t="str">
+        <f t="shared" si="1"/>
+        <v>"21201",</v>
+      </c>
+      <c r="F31" t="str">
+        <f>D31</f>
+        <v>"21201",</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B32" s="6">
+        <v>21301</v>
+      </c>
+      <c r="D32" t="str">
+        <f t="shared" si="1"/>
+        <v>"21301",</v>
+      </c>
+      <c r="F32" t="str">
+        <f>D32&amp;D33&amp;D34&amp;D35</f>
+        <v>"21301","21302","21303","21304",</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B33" s="6">
+        <v>21302</v>
+      </c>
+      <c r="D33" t="str">
+        <f t="shared" si="1"/>
+        <v>"21302",</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B34" s="6">
+        <v>21303</v>
+      </c>
+      <c r="D34" t="str">
+        <f t="shared" si="1"/>
+        <v>"21303",</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B35" s="6">
+        <v>21304</v>
+      </c>
+      <c r="D35" t="str">
+        <f t="shared" si="1"/>
+        <v>"21304",</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B36" s="6">
+        <v>21401</v>
+      </c>
+      <c r="D36" t="str">
+        <f t="shared" si="1"/>
+        <v>"21401",</v>
+      </c>
+      <c r="F36" t="str">
+        <f>D36&amp;D37&amp;D38</f>
+        <v>"21401","21402","21403",</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B37" s="6">
+        <v>21402</v>
+      </c>
+      <c r="D37" t="str">
+        <f t="shared" si="1"/>
+        <v>"21402",</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B38" s="6">
+        <v>21403</v>
+      </c>
+      <c r="D38" t="str">
+        <f t="shared" si="1"/>
+        <v>"21403",</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B39" s="6">
+        <v>21501</v>
+      </c>
+      <c r="D39" t="str">
+        <f t="shared" si="1"/>
+        <v>"21501",</v>
+      </c>
+      <c r="F39" t="str">
+        <f>D39&amp;D40&amp;D41&amp;D42&amp;D43&amp;D44</f>
+        <v>"21501","21502","21503","21504","21505","21506",</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B40" s="6">
+        <v>21502</v>
+      </c>
+      <c r="D40" t="str">
+        <f t="shared" si="1"/>
+        <v>"21502",</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B41" s="6">
+        <v>21503</v>
+      </c>
+      <c r="D41" t="str">
+        <f t="shared" si="1"/>
+        <v>"21503",</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B42" s="6">
+        <v>21504</v>
+      </c>
+      <c r="D42" t="str">
+        <f t="shared" si="1"/>
+        <v>"21504",</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B43" s="6">
+        <v>21505</v>
+      </c>
+      <c r="D43" t="str">
+        <f t="shared" si="1"/>
+        <v>"21505",</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B44" s="6">
+        <v>21506</v>
+      </c>
+      <c r="D44" t="str">
+        <f t="shared" si="1"/>
+        <v>"21506",</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B45" s="6">
+        <v>21601</v>
+      </c>
+      <c r="D45" t="str">
+        <f t="shared" si="1"/>
+        <v>"21601",</v>
+      </c>
+      <c r="F45" t="str">
+        <f>D45&amp;D46</f>
+        <v>"21601","21602",</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B46" s="6">
+        <v>21602</v>
+      </c>
+      <c r="D46" t="str">
+        <f t="shared" si="1"/>
+        <v>"21602",</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>11</v>
+      </c>
+      <c r="B48" s="5">
+        <v>20101</v>
+      </c>
+      <c r="C48" t="s">
+        <v>12</v>
+      </c>
+      <c r="D48" t="str">
+        <f t="shared" si="1"/>
+        <v>"20101",</v>
+      </c>
+      <c r="F48" t="str">
+        <f>D48&amp;D49&amp;D50</f>
+        <v>"20101","20102","20103",</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B49" s="5">
+        <v>20102</v>
+      </c>
+      <c r="D49" t="str">
+        <f t="shared" si="1"/>
+        <v>"20102",</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B50" s="5">
+        <v>20103</v>
+      </c>
+      <c r="D50" t="str">
+        <f t="shared" si="1"/>
+        <v>"20103",</v>
       </c>
     </row>
   </sheetData>

--- a/DataTableCsv/Default合成工具.xlsx
+++ b/DataTableCsv/Default合成工具.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\0504demo\DataTableCsv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A8B7F22-5D1A-451E-9CDF-9627B31EE35E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEFC2E1D-EB87-4006-A31A-61CF7C53E0BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,21 +20,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="16">
-  <si>
-    <t>(Valid=True,Cost=</t>
-  </si>
-  <si>
-    <t>,MainType=Attack,MisCamp=False,MisCampValid=False,Color=</t>
-  </si>
-  <si>
-    <t>,InLength=False)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="19">
   <si>
     <t>cost</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -81,6 +83,28 @@
   <si>
     <t>(IsDead=False,M_Health=60.000000,health=60.000000,FakeHealth=0.000000,DefaultArmor=3,Armor=3)</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(Name="",Number=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>,Cost=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>,Color=</t>
+  </si>
+  <si>
+    <t>,MisCamp=False,Valid=True,InLength=True)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
   </si>
 </sst>
 </file>
@@ -106,6 +130,7 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -113,6 +138,7 @@
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -151,7 +177,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -170,6 +196,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -453,288 +482,369 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J19" workbookViewId="0">
-      <selection activeCell="O30" sqref="O30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4:F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
         <v>1</v>
       </c>
-      <c r="J1" t="s">
+      <c r="F3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="3">
+        <v>3</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="3">
-        <v>3</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="F4" t="str">
-        <f>$A$1&amp;B4&amp;$C$1&amp;D4&amp;$J$1</f>
-        <v>(Valid=True,Cost=3,MainType=Attack,MisCamp=False,MisCampValid=False,Color=Red,InLength=False)</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <f>$A$1&amp;$B$1&amp;C4&amp;$C$1&amp;B4&amp;$D$1&amp;D4&amp;$E$1</f>
+        <v>(Name="",Number=None,Cost=3,Color=Red,MisCamp=False,Valid=True,InLength=True)</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
       <c r="B5" s="3">
-        <v>2</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="C5" s="3">
+        <v>8</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="F5" t="str">
-        <f>$A$1&amp;B5&amp;$C$1&amp;D6&amp;$J$1</f>
-        <v>(Valid=True,Cost=2,MainType=Attack,MisCamp=False,MisCampValid=False,Color=White,InLength=False)</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" ref="F5:F23" si="0">$A$1&amp;$B$1&amp;C5&amp;$C$1&amp;B5&amp;$D$1&amp;D5&amp;$E$1</f>
+        <v>(Name="",Number=8,Cost=4,Color=Blue,MisCamp=False,Valid=True,InLength=True)</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
       <c r="B6" s="3">
         <v>0</v>
       </c>
+      <c r="C6" s="3">
+        <v>6</v>
+      </c>
       <c r="D6" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F6" t="str">
-        <f>$A$1&amp;B6&amp;$C$1&amp;D7&amp;$J$1</f>
-        <v>(Valid=True,Cost=0,MainType=Attack,MisCamp=False,MisCampValid=False,Color=Red,InLength=False)</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>(Name="",Number=6,Cost=0,Color=White,MisCamp=False,Valid=True,InLength=True)</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
       <c r="B7" s="3">
         <v>4</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>7</v>
+      <c r="C7" s="3">
+        <v>4</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="F7" t="str">
-        <f t="shared" ref="F7:F23" si="0">$A$1&amp;B7&amp;$C$1&amp;D7&amp;$J$1</f>
-        <v>(Valid=True,Cost=4,MainType=Attack,MisCamp=False,MisCampValid=False,Color=Red,InLength=False)</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>(Name="",Number=4,Cost=4,Color=Blue,MisCamp=False,Valid=True,InLength=True)</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
       <c r="B8" s="4">
         <v>1</v>
       </c>
+      <c r="C8" s="4">
+        <v>6</v>
+      </c>
       <c r="D8" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F8" t="str">
         <f t="shared" si="0"/>
-        <v>(Valid=True,Cost=1,MainType=Attack,MisCamp=False,MisCampValid=False,Color=Green,InLength=False)</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>(Name="",Number=6,Cost=1,Color=Green,MisCamp=False,Valid=True,InLength=True)</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
       <c r="B9" s="4">
         <v>4</v>
       </c>
+      <c r="C9" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="D9" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F9" t="str">
         <f t="shared" si="0"/>
-        <v>(Valid=True,Cost=4,MainType=Attack,MisCamp=False,MisCampValid=False,Color=Blue,InLength=False)</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>(Name="",Number=None,Cost=4,Color=Blue,MisCamp=False,Valid=True,InLength=True)</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
       <c r="B10" s="4">
         <v>2</v>
       </c>
+      <c r="C10" s="4">
+        <v>2</v>
+      </c>
       <c r="D10" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F10" t="str">
         <f t="shared" si="0"/>
-        <v>(Valid=True,Cost=2,MainType=Attack,MisCamp=False,MisCampValid=False,Color=Blue,InLength=False)</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>(Name="",Number=2,Cost=2,Color=Blue,MisCamp=False,Valid=True,InLength=True)</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
       <c r="B11" s="4">
         <v>6</v>
       </c>
+      <c r="C11" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="D11" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" si="0"/>
-        <v>(Valid=True,Cost=6,MainType=Attack,MisCamp=False,MisCampValid=False,Color=Blue,InLength=False)</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+        <v>(Name="",Number=None,Cost=6,Color=Blue,MisCamp=False,Valid=True,InLength=True)</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
       <c r="B12" s="3">
         <v>0</v>
       </c>
+      <c r="C12" s="3">
+        <v>6</v>
+      </c>
       <c r="D12" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F12" t="str">
         <f t="shared" si="0"/>
-        <v>(Valid=True,Cost=0,MainType=Attack,MisCamp=False,MisCampValid=False,Color=White,InLength=False)</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+        <v>(Name="",Number=6,Cost=0,Color=White,MisCamp=False,Valid=True,InLength=True)</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
       <c r="B13" s="3">
         <v>3</v>
       </c>
+      <c r="C13" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="D13" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F13" t="str">
         <f t="shared" si="0"/>
-        <v>(Valid=True,Cost=3,MainType=Attack,MisCamp=False,MisCampValid=False,Color=Yellow,InLength=False)</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+        <v>(Name="",Number=None,Cost=3,Color=Yellow,MisCamp=False,Valid=True,InLength=True)</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
       <c r="B14" s="4">
         <v>5</v>
       </c>
+      <c r="C14" s="4">
+        <v>10</v>
+      </c>
       <c r="D14" s="2" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F14" t="str">
         <f t="shared" si="0"/>
-        <v>(Valid=True,Cost=5,MainType=Attack,MisCamp=False,MisCampValid=False,Color=Yellow,InLength=False)</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+        <v>(Name="",Number=10,Cost=5,Color=Blue,MisCamp=False,Valid=True,InLength=True)</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
       <c r="B15" s="2">
         <v>10</v>
       </c>
+      <c r="C15" s="7" t="s">
+        <v>18</v>
+      </c>
       <c r="D15" s="2" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F15" t="str">
         <f t="shared" si="0"/>
-        <v>(Valid=True,Cost=10,MainType=Attack,MisCamp=False,MisCampValid=False,Color=Yellow,InLength=False)</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+        <v>(Name="",Number=None,Cost=10,Color=Blue,MisCamp=False,Valid=True,InLength=True)</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
       <c r="B16" s="4">
         <v>0</v>
       </c>
+      <c r="C16" s="4">
+        <v>6</v>
+      </c>
       <c r="D16" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F16" t="str">
         <f t="shared" si="0"/>
-        <v>(Valid=True,Cost=0,MainType=Attack,MisCamp=False,MisCampValid=False,Color=White,InLength=False)</v>
+        <v>(Name="",Number=6,Cost=0,Color=White,MisCamp=False,Valid=True,InLength=True)</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
       <c r="B17" s="4">
         <v>0</v>
       </c>
+      <c r="C17" s="4">
+        <v>6</v>
+      </c>
       <c r="D17" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F17" t="str">
         <f t="shared" si="0"/>
-        <v>(Valid=True,Cost=0,MainType=Attack,MisCamp=False,MisCampValid=False,Color=White,InLength=False)</v>
+        <v>(Name="",Number=6,Cost=0,Color=White,MisCamp=False,Valid=True,InLength=True)</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
       <c r="B18" s="4">
         <v>5</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>7</v>
+      <c r="C18" s="4">
+        <v>10</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="F18" t="str">
         <f t="shared" si="0"/>
-        <v>(Valid=True,Cost=5,MainType=Attack,MisCamp=False,MisCampValid=False,Color=Red,InLength=False)</v>
+        <v>(Name="",Number=10,Cost=5,Color=Blue,MisCamp=False,Valid=True,InLength=True)</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B19" s="4">
         <v>10</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>7</v>
+      <c r="C19" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="F19" t="str">
         <f t="shared" si="0"/>
-        <v>(Valid=True,Cost=10,MainType=Attack,MisCamp=False,MisCampValid=False,Color=Red,InLength=False)</v>
+        <v>(Name="",Number=None,Cost=10,Color=Blue,MisCamp=False,Valid=True,InLength=True)</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B20" s="4">
         <v>10</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>7</v>
+      <c r="C20" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="F20" t="str">
         <f t="shared" si="0"/>
-        <v>(Valid=True,Cost=10,MainType=Attack,MisCamp=False,MisCampValid=False,Color=Red,InLength=False)</v>
+        <v>(Name="",Number=None,Cost=10,Color=Blue,MisCamp=False,Valid=True,InLength=True)</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B21" s="4">
         <v>3</v>
       </c>
+      <c r="C21" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="D21" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F21" t="str">
         <f t="shared" si="0"/>
-        <v>(Valid=True,Cost=3,MainType=Attack,MisCamp=False,MisCampValid=False,Color=Red,InLength=False)</v>
+        <v>(Name="",Number=None,Cost=3,Color=Red,MisCamp=False,Valid=True,InLength=True)</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B22" s="4">
         <v>3</v>
       </c>
+      <c r="C22" s="4">
+        <v>7</v>
+      </c>
       <c r="D22" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F22" t="str">
         <f t="shared" si="0"/>
-        <v>(Valid=True,Cost=3,MainType=Attack,MisCamp=False,MisCampValid=False,Color=Red,InLength=False)</v>
+        <v>(Name="",Number=7,Cost=3,Color=Red,MisCamp=False,Valid=True,InLength=True)</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B23" s="4">
         <v>3</v>
       </c>
+      <c r="C23" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="D23" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F23" t="str">
         <f t="shared" si="0"/>
-        <v>(Valid=True,Cost=3,MainType=Attack,MisCamp=False,MisCampValid=False,Color=White,InLength=False)</v>
+        <v>(Name="",Number=None,Cost=3,Color=White,MisCamp=False,Valid=True,InLength=True)</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="O26" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B27" s="5">
         <v>21101</v>
       </c>
       <c r="C27" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D27" t="str">
         <f>$A$27&amp;B27&amp;$C$27</f>
@@ -763,10 +873,10 @@
         <v>"21103",</v>
       </c>
       <c r="O29" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="P29" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="R29" t="str">
         <f>"(IsDead=False,M_Health="&amp;O30&amp;",health=0,FakeHealth=0.000000,DefaultArmor="&amp;P30&amp;",Armor=3)"</f>
@@ -948,13 +1058,13 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B48" s="5">
         <v>20101</v>
       </c>
       <c r="C48" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D48" t="str">
         <f t="shared" si="1"/>
